--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s4_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s4_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1864.478282423974</v>
+        <v>1103.819370409328</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.006999969482421875</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.84392883905826</v>
+        <v>36.66295360775301</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.70109323126045</v>
+        <v>18.37826586124954</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.805446816166261</v>
+        <v>11.53468266282439</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1484.83000000001</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>354.7</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -631,9 +631,53 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>12.46902814888773</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.91485850069196</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.07354493653836</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.29890676873955</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.883202878473366</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>28.92645506346164</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.66154480832267</v>
+        <v>29.42139854811867</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,13 +1045,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1015,13 +1059,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1029,13 +1073,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1043,13 +1087,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1057,13 +1101,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1077,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1091,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1105,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1113,13 +1157,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1127,13 +1171,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1144,10 +1188,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1158,10 +1202,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1172,40 +1216,12 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -1319,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -1330,7 +1346,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1357,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -1352,7 +1368,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -1363,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>177.9200000000004</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -1374,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>186.3100000000004</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -1385,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>189.6400000000005</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -1396,7 +1412,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>197.6100000000004</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>187.0200000000004</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -1418,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>233.9150000000012</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
@@ -1429,7 +1445,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>244.7100000000012</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -1440,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>246.6450000000012</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
@@ -1451,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>251.4700000000012</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
@@ -1462,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>243</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>101.4099999999998</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
@@ -1484,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>110.3849999999998</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -1495,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>100.3649999999998</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -1506,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>111.0449999999998</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
@@ -1517,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>108.4899999999998</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -1528,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.93999999999971</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1539,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>42.87999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1550,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>41.35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1561,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>44.15999999999971</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1572,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>233.9150000000012</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
@@ -1594,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>244.7100000000012</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
@@ -1605,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>246.6450000000012</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35">
@@ -1616,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>251.4700000000012</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36">
@@ -1627,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>243</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37">
@@ -1638,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>107.9950000000001</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -1649,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>105.5100000000001</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1676,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>104.6650000000001</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
@@ -1671,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>104.5050000000001</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41">
@@ -1682,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>96.60500000000008</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>133.9150000000012</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -1740,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>144.7100000000012</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1751,7 +1767,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>146.6450000000012</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1762,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>151.4700000000012</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -1773,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>143</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.995000000000083</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1795,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>5.510000000000066</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1806,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4.665000000000081</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1817,7 +1833,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.505000000000077</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1828,7 +1844,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1913,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1935,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +1979,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +1990,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +2023,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +2034,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +2045,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2089,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>20.545</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>24.885</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2133,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>29.155</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2144,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>24.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2155,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.45</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2183,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2194,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2205,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2216,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2224,7 +2240,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -2235,7 +2251,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -2246,7 +2262,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
@@ -2257,7 +2273,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>4</v>
@@ -2268,7 +2284,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>5</v>
@@ -2279,7 +2295,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2290,7 +2306,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
@@ -2301,7 +2317,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
         <v>3</v>
@@ -2312,7 +2328,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
         <v>4</v>
@@ -2323,67 +2339,12 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
